--- a/Maker/aqplus_rev2_CPL1.xlsx
+++ b/Maker/aqplus_rev2_CPL1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sph\Box\Retro\Aquarius\AquariusPlus\aquarius-plus\System\pcb\rev2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sph\Box\Retro\Aquarius\AquariusPlus\aquarius-plus\Maker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FA19E62-3BD0-4780-91EA-F86BCFF44A12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD11F8E3-A630-4C17-AF2B-EE034EACF9A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="17205" yWindow="165" windowWidth="11520" windowHeight="15135" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="190">
   <si>
     <t>Designator</t>
   </si>
@@ -584,6 +584,15 @@
   </si>
   <si>
     <t>-134.075</t>
+  </si>
+  <si>
+    <t>-37.8</t>
+  </si>
+  <si>
+    <t>-44.45</t>
+  </si>
+  <si>
+    <t>103.5</t>
   </si>
 </sst>
 </file>
@@ -939,8 +948,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E166"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="C75" sqref="C75"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="B67" sqref="B67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -2064,8 +2073,8 @@
       <c r="B66" s="3">
         <v>83.467151999999999</v>
       </c>
-      <c r="C66" s="3">
-        <v>-36.459468999999999</v>
+      <c r="C66" s="3" t="s">
+        <v>187</v>
       </c>
       <c r="D66" s="3" t="s">
         <v>170</v>
@@ -2078,11 +2087,11 @@
       <c r="A67" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="B67" s="3">
-        <v>107</v>
-      </c>
-      <c r="C67" s="3">
-        <v>-45.86</v>
+      <c r="B67" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>188</v>
       </c>
       <c r="D67" s="3" t="s">
         <v>170</v>
